--- a/medicine/Sexualité et sexologie/Love_and_Sex/Love_and_Sex.xlsx
+++ b/medicine/Sexualité et sexologie/Love_and_Sex/Love_and_Sex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Love and Sex est un film américain réalisé par Valerie Breiman, sorti en 2000.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La journaliste Kate Welles se fait refuser un article sur la fellation par sa rédactrice en chef qui lui demande d'écrire un article sur les relations amoureuses avant la fin de la journée sous peine d'être licenciée. Cela amène Kate à repenser à ses propres mésaventures sentimentales.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Love and Sex
 Réalisation : Valerie Breiman
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Famke Janssen : Kate Welles
 Jon Favreau : Adam Levy
@@ -635,9 +653,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 44 % sur Metacritic[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 44 % sur Metacritic.
 </t>
         </is>
       </c>
